--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/michael_bigler_etu_unige_ch/Documents/Studium/Master/2. Semester/Advanced_Data_Driven_Decision_Making/Case_Study_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535F54B3-2EBC-431E-9C43-CAFFF5960197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{535F54B3-2EBC-431E-9C43-CAFFF5960197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D61569-E492-4F7A-B357-9932D2F9DC08}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{09F32E42-8CB4-45F7-A161-7268D23943EE}"/>
+    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" activeTab="2" xr2:uid="{09F32E42-8CB4-45F7-A161-7268D23943EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1 b" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Question 3 a" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Price</t>
   </si>
@@ -46,13 +48,89 @@
   </si>
   <si>
     <t>Change Logit</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>QLED</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>Dual Sim</t>
+  </si>
+  <si>
+    <t>60 MP</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Metrics / Model</t>
+  </si>
+  <si>
+    <t>LED + Mono</t>
+  </si>
+  <si>
+    <t>LED + Stereo</t>
+  </si>
+  <si>
+    <t>LED + Atmos</t>
+  </si>
+  <si>
+    <t>QLED + Mono</t>
+  </si>
+  <si>
+    <t>QLED + Stereo</t>
+  </si>
+  <si>
+    <t>QLED + Atmos</t>
+  </si>
+  <si>
+    <t>OLED + Mono</t>
+  </si>
+  <si>
+    <t>OLED + Stereo</t>
+  </si>
+  <si>
+    <t>OLED + Atmos</t>
+  </si>
+  <si>
+    <t>Market Share First choice</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>First Choice</t>
+  </si>
+  <si>
+    <t>Logit</t>
+  </si>
+  <si>
+    <t>Market share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue </t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,15 +156,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,6 +182,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5527951E-1424-4941-A2D2-323A73F3402B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,7 +624,7 @@
         <v>0.16545842217483994</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="C8:E8" si="1">(D7-$B$7)/$B$7</f>
+        <f t="shared" ref="D8:E8" si="1">(D7-$B$7)/$B$7</f>
         <v>-0.43198294243070362</v>
       </c>
       <c r="E8" s="1">
@@ -549,4 +636,318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258D2294-3589-409B-B260-41353C296966}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.27839999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>B3*350*10000000</f>
+        <v>378000000</v>
+      </c>
+      <c r="C4">
+        <f>C3*350*10000000</f>
+        <v>477399999.99999994</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D3*350*10000000</f>
+        <v>1034250000</v>
+      </c>
+      <c r="E4">
+        <f>E3*350*10000000</f>
+        <v>894949999.99999988</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4" si="0">F3*350*10000000</f>
+        <v>974400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(B4-$B4)/$B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:F5" si="1">(C4-$B4)/$B4</f>
+        <v>0.26296296296296279</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3675925925925922</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5777777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.28129999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <f>B9*350*10000000</f>
+        <v>469000000.00000006</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="2">C9*350*10000000</f>
+        <v>588000000</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>1096550000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>864150000.00000012</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>984550000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(B10-$B10)/$B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11" si="3">(C10-$B10)/$B10</f>
+        <v>0.25373134328358193</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11" si="4">(D10-$B10)/$B10</f>
+        <v>1.3380597014925371</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11" si="5">(E10-$B10)/$B10</f>
+        <v>0.84253731343283589</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11" si="6">(F10-$B10)/$B10</f>
+        <v>1.0992537313432833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E407B9-4E59-400D-B031-3FE519D79FEF}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.108</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.55110000000000003</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.61929999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/michael_bigler_etu_unige_ch/Documents/Studium/Master/2. Semester/Advanced_Data_Driven_Decision_Making/Case_Study_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{535F54B3-2EBC-431E-9C43-CAFFF5960197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D61569-E492-4F7A-B357-9932D2F9DC08}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{535F54B3-2EBC-431E-9C43-CAFFF5960197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64913FBE-3FCF-48E2-A13C-3007673FA749}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="0" windowWidth="11250" windowHeight="14400" activeTab="2" xr2:uid="{09F32E42-8CB4-45F7-A161-7268D23943EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="14400" firstSheet="3" activeTab="4" xr2:uid="{09F32E42-8CB4-45F7-A161-7268D23943EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1 b" sheetId="1" r:id="rId1"/>
     <sheet name="Question 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Question 3 a" sheetId="3" r:id="rId3"/>
+    <sheet name="Question 3 a" sheetId="4" r:id="rId3"/>
+    <sheet name="Question 3 b" sheetId="3" r:id="rId4"/>
+    <sheet name="Question 4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -117,6 +119,30 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Costs per phone</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Business Metrics / Features</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>Atmos</t>
+  </si>
+  <si>
+    <t>Dual Sim card</t>
+  </si>
+  <si>
+    <t>Cost per phone</t>
   </si>
 </sst>
 </file>
@@ -139,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,12 +192,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,15 +885,261 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E407B9-4E59-400D-B031-3FE519D79FEF}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49BD65B-CA00-4985-8D06-68EDB9DE4243}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.108</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.55110000000000003</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.61929999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f>350*B3*10000000</f>
+        <v>378000000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:J4" si="0">350*C3*10000000</f>
+        <v>1034250000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1521449999.9999998</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>477399999.99999994</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1411900000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1809500000.0000002</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>686000000.00000012</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1928850000.0000002</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>2167550000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.56589999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <f>350*B8*10000000</f>
+        <v>469000000.00000006</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J9" si="1">350*C8*10000000</f>
+        <v>1096550000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1427649999.9999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>588000000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1388800000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1694350000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>751799999.99999988</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1705550000</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>1980650000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E407B9-4E59-400D-B031-3FE519D79FEF}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
@@ -898,7 +1178,7 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
@@ -930,7 +1210,7 @@
       <c r="H3" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>0.55110000000000003</v>
       </c>
       <c r="J3" s="4">
@@ -941,10 +1221,755 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B4">
+        <f>350*B3*10000000</f>
+        <v>378000000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:J4" si="0">350*C3*10000000</f>
+        <v>1034250000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1521449999.9999998</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>477399999.99999994</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1411900000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1809500000.0000002</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>686000000.00000012</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>1928850000.0000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2167550000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>240</v>
+      </c>
+      <c r="E5">
+        <v>220</v>
+      </c>
+      <c r="F5">
+        <v>230</v>
+      </c>
+      <c r="G5">
+        <v>260</v>
+      </c>
+      <c r="H5">
+        <v>240</v>
+      </c>
+      <c r="I5" s="5">
+        <v>250</v>
+      </c>
+      <c r="J5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f>B5*B3*10000000</f>
+        <v>216000000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:J6" si="1">C5*C3*10000000</f>
+        <v>620550000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1043279999.9999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>300080000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>927820000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1344200000.0000002</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>470400000</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>1377750000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1734040000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>B4-B6</f>
+        <v>162000000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:J7" si="2">C4-C6</f>
+        <v>413700000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>478169999.99999988</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>177319999.99999994</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>484080000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>465300000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>215600000.00000012</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>551100000.00000024</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>433510000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.56589999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <f>350*B11*10000000</f>
+        <v>469000000.00000006</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12" si="3">350*C11*10000000</f>
+        <v>1096550000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="4">350*D11*10000000</f>
+        <v>1427649999.9999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="5">350*E11*10000000</f>
+        <v>588000000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="6">350*F11*10000000</f>
+        <v>1388800000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12" si="7">350*G11*10000000</f>
+        <v>1694350000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12" si="8">350*H11*10000000</f>
+        <v>751799999.99999988</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ref="I12" si="9">350*I11*10000000</f>
+        <v>1705550000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="10">350*J11*10000000</f>
+        <v>1980650000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>210</v>
+      </c>
+      <c r="D13">
+        <v>240</v>
+      </c>
+      <c r="E13">
+        <v>220</v>
+      </c>
+      <c r="F13">
+        <v>230</v>
+      </c>
+      <c r="G13">
+        <v>260</v>
+      </c>
+      <c r="H13">
+        <v>240</v>
+      </c>
+      <c r="I13" s="5">
+        <v>250</v>
+      </c>
+      <c r="J13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>B13*B11*10000000</f>
+        <v>268000000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14" si="11">C13*C11*10000000</f>
+        <v>657930000.00000012</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="12">D13*D11*10000000</f>
+        <v>978960000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="13">E13*E11*10000000</f>
+        <v>369600000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="14">F13*F11*10000000</f>
+        <v>912640000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="15">G13*G11*10000000</f>
+        <v>1258660000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="16">H13*H11*10000000</f>
+        <v>515520000</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14" si="17">I13*I11*10000000</f>
+        <v>1218250000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="18">J13*J11*10000000</f>
+        <v>1584520000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>B12-B14</f>
+        <v>201000000.00000006</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15" si="19">C12-C14</f>
+        <v>438619999.99999988</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="20">D12-D14</f>
+        <v>448689999.99999976</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="21">E12-E14</f>
+        <v>218400000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="22">F12-F14</f>
+        <v>476160000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="23">G12-G14</f>
+        <v>435690000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="24">H12-H14</f>
+        <v>236279999.99999988</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15" si="25">I12-I14</f>
+        <v>487300000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="26">J12-J14</f>
+        <v>396130000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC8DFAC-43F8-4968-90D8-9175B749BF15}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.11650000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <f>B2*350*10000000</f>
+        <v>119349999.99999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:H3" si="0">C2*350*10000000</f>
+        <v>169050000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>218750000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>288400000</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>656250000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>397600000.00000006</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>407750000.00000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>220</v>
+      </c>
+      <c r="D4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>210</v>
+      </c>
+      <c r="F4" s="5">
+        <v>240</v>
+      </c>
+      <c r="G4">
+        <v>220</v>
+      </c>
+      <c r="H4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f>B4*B2*10000000</f>
+        <v>68200000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:H5" si="1">C4*C2*10000000</f>
+        <v>106260000.00000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>150000000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>173039999.99999997</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>450000000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>249920000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>302900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <f>B3-B5</f>
+        <v>51149999.999999985</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:H6" si="2">C3-C5</f>
+        <v>62789999.999999985</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>68750000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>115360000.00000003</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>206250000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>147680000.00000006</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>104850000.00000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5.79E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.1014</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.1384</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.14180000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f>B10*350*10000000</f>
+        <v>202650000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11" si="3">C10*350*10000000</f>
+        <v>256550000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="4">D10*350*10000000</f>
+        <v>354900000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="5">E10*350*10000000</f>
+        <v>484400000</v>
+      </c>
+      <c r="F11" s="5">
+        <f>F10*350*10000000</f>
+        <v>773849999.99999988</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11" si="6">G10*350*10000000</f>
+        <v>444150000.00000006</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11" si="7">H10*350*10000000</f>
+        <v>496300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>220</v>
+      </c>
+      <c r="D12">
+        <v>240</v>
+      </c>
+      <c r="E12">
+        <v>210</v>
+      </c>
+      <c r="F12" s="5">
+        <v>240</v>
+      </c>
+      <c r="G12">
+        <v>220</v>
+      </c>
+      <c r="H12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <f>B12*B10*10000000</f>
+        <v>115800000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="8">C12*C10*10000000</f>
+        <v>161260000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="9">D12*D10*10000000</f>
+        <v>243360000.00000003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="10">E12*E10*10000000</f>
+        <v>290640000</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13" si="11">F12*F10*10000000</f>
+        <v>530640000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="12">G12*G10*10000000</f>
+        <v>279180000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13" si="13">H12*H10*10000000</f>
+        <v>368680000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <f>B11-B13</f>
+        <v>86850000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14" si="14">C11-C13</f>
+        <v>95290000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="15">D11-D13</f>
+        <v>111539999.99999997</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="16">E11-E13</f>
+        <v>193760000</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14" si="17">F11-F13</f>
+        <v>243209999.99999988</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="18">G11-G13</f>
+        <v>164970000.00000006</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="19">H11-H13</f>
+        <v>127620000</v>
       </c>
     </row>
   </sheetData>
